--- a/Tos.FoodProcs.Web/templates/genshizaiChoseiNyuryoku_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genshizaiChoseiNyuryoku_vi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36543A83-60D1-4C73-906B-035191FC2C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B53991-6523-4E51-B8A7-331D9661AB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,18 +75,16 @@
     <t>Ngày cập nhật</t>
   </si>
   <si>
-    <t>Người xuất　　  ：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất     ：</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm    ：</t>
+    <t>Loại sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ngày phát sinh 
-điều chỉnh </t>
+      <t>Người xuất</t>
     </r>
     <r>
       <rPr>
@@ -95,8 +93,13 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>：</t>
+      <t/>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày phát sinh 
+điều chỉnh                :</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="@* \:"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -307,9 +311,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -332,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -650,7 +654,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="44.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="14" customWidth="1"/>
@@ -684,10 +688,10 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="17"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -701,8 +705,8 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>17</v>
+      <c r="A3" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="17"/>
       <c r="E3" s="18"/>
@@ -717,7 +721,7 @@
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="27"/>
       <c r="C4" s="17"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -731,10 +735,10 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" s="16" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
@@ -747,10 +751,10 @@
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="22"/>
+      <c r="A6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -778,47 +782,47 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="31.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:14" s="24" customFormat="1" ht="31.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>14</v>
       </c>
     </row>
